--- a/resultats_ronde1.xlsx
+++ b/resultats_ronde1.xlsx
@@ -571,7 +571,7 @@
     <t>Abracadabra</t>
   </si>
   <si>
-    <t>en_attente</t>
+    <t>draw</t>
   </si>
   <si>
     <t>No Pain</t>
